--- a/zwnl-8687.xlsx
+++ b/zwnl-8687.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C079EDB2-84F6-4298-A4F1-07C23D758E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0071AFB0-3379-4998-A5C3-FC9B832CD18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2543" yWindow="2543" windowWidth="21502" windowHeight="12975" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Naam</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>AI</t>
-  </si>
-  <si>
-    <t>Spots somda</t>
-  </si>
-  <si>
-    <t>Spots sion-rail</t>
   </si>
   <si>
     <t>Opstel</t>
@@ -153,12 +147,39 @@
 Tabel 30b:
 [n] 9744</t>
   </si>
+  <si>
+    <t>Internationaal</t>
+  </si>
+  <si>
+    <t>Goederen (DRGL'11?)</t>
+  </si>
+  <si>
+    <t>Tabel 91a:
+[x] 163</t>
+  </si>
+  <si>
+    <t>- MKN11 Zlw-Bd
+- KS10 Ddr-Zlw
+- KKN20 Kfhz-Zlw
+- WES10 Kfhz-Zlw
+- EUW20 Rtd-Whv</t>
+  </si>
+  <si>
+    <t>- Zlw
+- Ddr
+- Kfh
+- IJsm</t>
+  </si>
+  <si>
+    <t>- Bd
+- Ddr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +199,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -206,16 +235,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -522,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8B9C10-3B26-4BBA-B6EF-00E5872C35E1}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -546,111 +578,133 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>